--- a/timer.xlsx
+++ b/timer.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="315">
   <si>
     <t>tôi muốn đặt</t>
   </si>
@@ -763,6 +763,213 @@
   </si>
   <si>
     <t>59 giây</t>
+  </si>
+  <si>
+    <t>1 tiếng</t>
+  </si>
+  <si>
+    <t>2 tiếng</t>
+  </si>
+  <si>
+    <t>3 tiếng</t>
+  </si>
+  <si>
+    <t>4 tiếng</t>
+  </si>
+  <si>
+    <t>5 tiếng</t>
+  </si>
+  <si>
+    <t>6 tiếng</t>
+  </si>
+  <si>
+    <t>7 tiếng</t>
+  </si>
+  <si>
+    <t>8 tiếng</t>
+  </si>
+  <si>
+    <t>9 tiếng</t>
+  </si>
+  <si>
+    <t>10 tiếng</t>
+  </si>
+  <si>
+    <t>11 tiếng</t>
+  </si>
+  <si>
+    <t>12 tiếng</t>
+  </si>
+  <si>
+    <t>13 tiếng</t>
+  </si>
+  <si>
+    <t>14 tiếng</t>
+  </si>
+  <si>
+    <t>15 tiếng</t>
+  </si>
+  <si>
+    <t>16 tiếng</t>
+  </si>
+  <si>
+    <t>17 tiếng</t>
+  </si>
+  <si>
+    <t>18 tiếng</t>
+  </si>
+  <si>
+    <t>19 tiếng</t>
+  </si>
+  <si>
+    <t>20 tiếng</t>
+  </si>
+  <si>
+    <t>21 tiếng</t>
+  </si>
+  <si>
+    <t>22 tiếng</t>
+  </si>
+  <si>
+    <t>23 tiếng</t>
+  </si>
+  <si>
+    <t>gọi cho tôi</t>
+  </si>
+  <si>
+    <t>báo tôi</t>
+  </si>
+  <si>
+    <t>gọi tôi</t>
+  </si>
+  <si>
+    <t>báo cho tôi</t>
+  </si>
+  <si>
+    <t>đếm ngược</t>
+  </si>
+  <si>
+    <t>đặt đếm ngược</t>
+  </si>
+  <si>
+    <t>sau tầm</t>
+  </si>
+  <si>
+    <t>sau khoảng</t>
+  </si>
+  <si>
+    <t>trong tầm</t>
+  </si>
+  <si>
+    <t>trong khoảng</t>
+  </si>
+  <si>
+    <t>s1 + s2 + minute + second</t>
+  </si>
+  <si>
+    <t>s3 + minute + second</t>
+  </si>
+  <si>
+    <t>s1 + s2 + hour + minute + second</t>
+  </si>
+  <si>
+    <t>s3 + hour + minute + second</t>
+  </si>
+  <si>
+    <t>s1 + s2 + c1 + hour + minute + d1</t>
+  </si>
+  <si>
+    <t>s1 + s2 + c1 + hour + minute</t>
+  </si>
+  <si>
+    <t>s1 + s2 + hour + minute + d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1 + s2 + hour + minute </t>
+  </si>
+  <si>
+    <t>s3 + c1 + hour + minute + d1</t>
+  </si>
+  <si>
+    <t>s3 + c1 + hour + minute</t>
+  </si>
+  <si>
+    <t>s3 + hour + minute + d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s3 + hour + minute </t>
+  </si>
+  <si>
+    <t>s1 + s2 + c1 + time + second + d1</t>
+  </si>
+  <si>
+    <t>s1 + s2 + c1 + time + second</t>
+  </si>
+  <si>
+    <t>s1 + s2 + time + second + d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1 + s2 + time + second </t>
+  </si>
+  <si>
+    <t>s3 + c1 + time + second + d1</t>
+  </si>
+  <si>
+    <t>s3 + c1 + time + second</t>
+  </si>
+  <si>
+    <t>s3 + time + second + d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s3 + time + second </t>
+  </si>
+  <si>
+    <t>s1 + s2 + c1 + hour + minute + second + d1</t>
+  </si>
+  <si>
+    <t>s1 + s2 + c1 + hour + minute + second</t>
+  </si>
+  <si>
+    <t>s1 + s2 + hour + minute + second + d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1 + s2 + hour + minute + second </t>
+  </si>
+  <si>
+    <t>s3 + c1 + hour + minute + second + d1</t>
+  </si>
+  <si>
+    <t>s3 + c1 + hour + minute + second</t>
+  </si>
+  <si>
+    <t>s3 + hour + minute + second + d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s3 + hour + minute + second </t>
+  </si>
+  <si>
+    <t>s1 + s2 + c1 + minute + second + d1</t>
+  </si>
+  <si>
+    <t>s1 + s2 + c1 + minute + second</t>
+  </si>
+  <si>
+    <t>s1 + s2 + minute + second + d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1 + s2 + minute + second </t>
+  </si>
+  <si>
+    <t>s3 + c1 + minute + second + d1</t>
+  </si>
+  <si>
+    <t>s3 + c1 + minute + second</t>
+  </si>
+  <si>
+    <t>s3 + minute + second + d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s3 + minute + second </t>
   </si>
 </sst>
 </file>
@@ -1088,10 +1295,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="L80" sqref="L80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1176,6 +1383,9 @@
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>106</v>
       </c>
@@ -1200,6 +1410,9 @@
         <v>7</v>
       </c>
       <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>107</v>
       </c>
@@ -1220,6 +1433,9 @@
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>108</v>
       </c>
@@ -1228,6 +1444,9 @@
       </c>
       <c r="F5" s="2" t="s">
         <v>190</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>24</v>
@@ -1237,6 +1456,9 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>272</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>109</v>
       </c>
@@ -1245,6 +1467,9 @@
       </c>
       <c r="F6" s="2" t="s">
         <v>191</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>26</v>
@@ -1254,6 +1479,9 @@
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>110</v>
       </c>
@@ -1262,6 +1490,9 @@
       </c>
       <c r="F7" s="2" t="s">
         <v>192</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>27</v>
@@ -1271,6 +1502,9 @@
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>111</v>
       </c>
@@ -1279,6 +1513,9 @@
       </c>
       <c r="F8" s="2" t="s">
         <v>193</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>28</v>
@@ -1521,6 +1758,9 @@
       </c>
     </row>
     <row r="25" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="E25" s="2" t="s">
         <v>151</v>
       </c>
@@ -1532,6 +1772,9 @@
       </c>
     </row>
     <row r="26" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="E26" s="2" t="s">
         <v>152</v>
       </c>
@@ -1546,6 +1789,9 @@
       </c>
     </row>
     <row r="27" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="E27" s="2" t="s">
         <v>153</v>
       </c>
@@ -1557,6 +1803,9 @@
       </c>
     </row>
     <row r="28" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" s="2" t="s">
+        <v>249</v>
+      </c>
       <c r="E28" s="2" t="s">
         <v>154</v>
       </c>
@@ -1568,6 +1817,9 @@
       </c>
     </row>
     <row r="29" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D29" s="2" t="s">
+        <v>250</v>
+      </c>
       <c r="E29" s="2" t="s">
         <v>155</v>
       </c>
@@ -1579,6 +1831,9 @@
       </c>
     </row>
     <row r="30" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D30" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="E30" s="2" t="s">
         <v>156</v>
       </c>
@@ -1590,6 +1845,9 @@
       </c>
     </row>
     <row r="31" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="E31" s="2" t="s">
         <v>157</v>
       </c>
@@ -1601,6 +1859,9 @@
       </c>
     </row>
     <row r="32" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="2" t="s">
+        <v>253</v>
+      </c>
       <c r="E32" s="2" t="s">
         <v>158</v>
       </c>
@@ -1611,7 +1872,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="E33" s="2" t="s">
         <v>159</v>
       </c>
@@ -1622,7 +1886,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="2" t="s">
+        <v>255</v>
+      </c>
       <c r="E34" s="2" t="s">
         <v>160</v>
       </c>
@@ -1636,7 +1903,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="E35" s="2" t="s">
         <v>161</v>
       </c>
@@ -1647,7 +1917,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D36" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="E36" s="2" t="s">
         <v>162</v>
       </c>
@@ -1658,7 +1931,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="E37" s="2" t="s">
         <v>163</v>
       </c>
@@ -1669,7 +1945,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="E38" s="2" t="s">
         <v>164</v>
       </c>
@@ -1680,7 +1959,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="2" t="s">
+        <v>260</v>
+      </c>
       <c r="E39" s="2" t="s">
         <v>165</v>
       </c>
@@ -1691,7 +1973,10 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D40" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="E40" s="2" t="s">
         <v>166</v>
       </c>
@@ -1702,7 +1987,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D41" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="E41" s="2" t="s">
         <v>167</v>
       </c>
@@ -1713,7 +2001,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D42" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="E42" s="2" t="s">
         <v>168</v>
       </c>
@@ -1727,7 +2018,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D43" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="E43" s="2" t="s">
         <v>169</v>
       </c>
@@ -1738,7 +2032,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D44" s="2" t="s">
+        <v>265</v>
+      </c>
       <c r="E44" s="2" t="s">
         <v>170</v>
       </c>
@@ -1749,7 +2046,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D45" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="E45" s="2" t="s">
         <v>171</v>
       </c>
@@ -1760,7 +2060,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D46" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="E46" s="2" t="s">
         <v>172</v>
       </c>
@@ -1771,7 +2074,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D47" s="2" t="s">
+        <v>268</v>
+      </c>
       <c r="E47" s="2" t="s">
         <v>173</v>
       </c>
@@ -1782,7 +2088,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="5:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E48" s="2" t="s">
         <v>174</v>
       </c>
@@ -1997,6 +2303,406 @@
     <row r="73" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J73" s="2" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J74" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="75" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J75" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="76" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J76" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="77" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J77" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="78" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J78" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J79" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="10:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J80" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J81" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J82" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J83" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J84" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J85" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J86" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="87" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J87" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="88" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J88" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="89" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J89" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="90" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J90" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="91" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J91" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="92" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J92" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="93" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J93" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="94" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J94" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J95" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J96" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="97" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J97" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="98" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J98" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="99" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J99" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="100" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J100" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="101" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J101" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="102" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J102" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J103" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J104" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J105" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J106" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J107" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="108" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J108" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J109" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J110" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J111" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J112" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J113" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J114" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J115" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="116" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J116" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="117" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J117" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="118" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J118" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="119" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J119" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="120" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J120" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="121" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J121" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="122" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J122" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="123" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J123" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="124" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J124" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="125" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J125" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="126" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J126" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="127" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J127" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="128" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J128" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="129" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J129" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="130" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J130" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="131" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J131" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="132" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J132" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="133" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J133" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="134" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J134" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="135" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J135" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="136" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J136" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="137" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J137" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="138" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J138" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J139" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="140" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J140" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="141" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J141" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="142" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J142" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="143" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J143" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="144" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J144" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="145" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J145" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="146" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J146" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J147" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="148" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J148" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="149" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J149" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="150" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J150" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="151" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J151" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="152" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J152" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="153" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J153" s="2" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2006,52 +2712,392 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A1:A8"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection sqref="A1:A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
